--- a/tests/databooks/progbook_diabetes.xlsx
+++ b/tests/databooks/progbook_diabetes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6ECBB9AE-F4D9-B44E-960F-DDD00A5CFF93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD842C21-F27F-E34A-83BF-F64BBCB76E73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="2000" windowWidth="23180" windowHeight="11880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5620" yWindow="2000" windowWidth="23180" windowHeight="11880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -268,907 +268,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="348">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="288">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -4613,542 +3713,542 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="347" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="85" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="346" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="97" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="345" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="344" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="343" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="342" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="341" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="49" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="340" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="61" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="339" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="73" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="338" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="86" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="337" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="98" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="336" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="335" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="334" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="333" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="38" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="332" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="50" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="331" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="62" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="330" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="74" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="329" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="87" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="328" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="99" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="327" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="326" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="325" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="324" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="323" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="51" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="322" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="63" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="321" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="75" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="320" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="88" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="319" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="100" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="318" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="317" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="316" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="315" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="314" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="52" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="313" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="64" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="312" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="311" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="89" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="310" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="101" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="309" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="308" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="307" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="306" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="305" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="53" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="304" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="65" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="303" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="77" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="302" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="90" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="301" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="102" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="300" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="299" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="298" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="297" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="296" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="54" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="295" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="66" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="294" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="78" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="293" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="91" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="292" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="103" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="291" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="290" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="289" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="288" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="287" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="286" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="67" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="285" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="79" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="284" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="92" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="283" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="104" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="282" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="281" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="280" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="279" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="278" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="56" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="277" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="68" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="276" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="80" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="275" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="93" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="274" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="105" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="273" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="272" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="271" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="270" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="269" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="57" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="268" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="267" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="81" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="266" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="94" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="265" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="106" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="264" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="263" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="262" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="261" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="260" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="58" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="259" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="70" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="258" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="82" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="257" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="95" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="cellIs" dxfId="256" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="107" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="255" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="254" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="253" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="252" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="251" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="59" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="250" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="71" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" dxfId="249" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="83" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="248" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="96" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="247" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="108" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="246" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="245" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" dxfId="244" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="243" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="48" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="242" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="60" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="241" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="72" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="240" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="84" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5165,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6114,362 +5214,362 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="239" priority="13">
+    <cfRule type="expression" dxfId="179" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="14">
+    <cfRule type="expression" dxfId="178" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="237" priority="15">
+    <cfRule type="expression" dxfId="177" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="16">
+    <cfRule type="expression" dxfId="176" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="235" priority="17">
+    <cfRule type="expression" dxfId="175" priority="17">
       <formula>COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="18">
+    <cfRule type="expression" dxfId="174" priority="18">
       <formula>AND(COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="233" priority="19">
+    <cfRule type="expression" dxfId="173" priority="19">
       <formula>COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="20">
+    <cfRule type="expression" dxfId="172" priority="20">
       <formula>AND(COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="231" priority="21">
+    <cfRule type="expression" dxfId="171" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="22">
+    <cfRule type="expression" dxfId="170" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="229" priority="23">
+    <cfRule type="expression" dxfId="169" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="24">
+    <cfRule type="expression" dxfId="168" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="227" priority="25">
+    <cfRule type="expression" dxfId="167" priority="25">
       <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="26">
+    <cfRule type="expression" dxfId="166" priority="26">
       <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="225" priority="27">
+    <cfRule type="expression" dxfId="165" priority="27">
       <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="28">
+    <cfRule type="expression" dxfId="164" priority="28">
       <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="223" priority="1">
+    <cfRule type="expression" dxfId="163" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="2">
+    <cfRule type="expression" dxfId="162" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="221" priority="29">
+    <cfRule type="expression" dxfId="161" priority="29">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="30">
+    <cfRule type="expression" dxfId="160" priority="30">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="219" priority="31">
+    <cfRule type="expression" dxfId="159" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="32">
+    <cfRule type="expression" dxfId="158" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="217" priority="33">
+    <cfRule type="expression" dxfId="157" priority="33">
       <formula>COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="34">
+    <cfRule type="expression" dxfId="156" priority="34">
       <formula>AND(COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="215" priority="35">
+    <cfRule type="expression" dxfId="155" priority="35">
       <formula>COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="36">
+    <cfRule type="expression" dxfId="154" priority="36">
       <formula>AND(COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="213" priority="37">
+    <cfRule type="expression" dxfId="153" priority="37">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="38">
+    <cfRule type="expression" dxfId="152" priority="38">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="211" priority="39">
+    <cfRule type="expression" dxfId="151" priority="39">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="40">
+    <cfRule type="expression" dxfId="150" priority="40">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="209" priority="3">
+    <cfRule type="expression" dxfId="149" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="4">
+    <cfRule type="expression" dxfId="148" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="207" priority="41">
+    <cfRule type="expression" dxfId="147" priority="41">
       <formula>COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="42">
+    <cfRule type="expression" dxfId="146" priority="42">
       <formula>AND(COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="205" priority="43">
+    <cfRule type="expression" dxfId="145" priority="43">
       <formula>COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="44">
+    <cfRule type="expression" dxfId="144" priority="44">
       <formula>AND(COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="203" priority="45">
+    <cfRule type="expression" dxfId="143" priority="45">
       <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="46">
+    <cfRule type="expression" dxfId="142" priority="46">
       <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="201" priority="47">
+    <cfRule type="expression" dxfId="141" priority="47">
       <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="48">
+    <cfRule type="expression" dxfId="140" priority="48">
       <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="199" priority="49">
+    <cfRule type="expression" dxfId="139" priority="49">
       <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="50">
+    <cfRule type="expression" dxfId="138" priority="50">
       <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="197" priority="51">
+    <cfRule type="expression" dxfId="137" priority="51">
       <formula>COUNTIF(E37:H37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="52">
+    <cfRule type="expression" dxfId="136" priority="52">
       <formula>AND(COUNTIF(E37:H37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="195" priority="53">
+    <cfRule type="expression" dxfId="135" priority="53">
       <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="54">
+    <cfRule type="expression" dxfId="134" priority="54">
       <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="193" priority="55">
+    <cfRule type="expression" dxfId="133" priority="55">
       <formula>COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="56">
+    <cfRule type="expression" dxfId="132" priority="56">
       <formula>AND(COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="191" priority="5">
+    <cfRule type="expression" dxfId="131" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="6">
+    <cfRule type="expression" dxfId="130" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="189" priority="57">
+    <cfRule type="expression" dxfId="129" priority="57">
       <formula>COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="58">
+    <cfRule type="expression" dxfId="128" priority="58">
       <formula>AND(COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="187" priority="59">
+    <cfRule type="expression" dxfId="127" priority="59">
       <formula>COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="60">
+    <cfRule type="expression" dxfId="126" priority="60">
       <formula>AND(COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="185" priority="61">
+    <cfRule type="expression" dxfId="125" priority="61">
       <formula>COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="62">
+    <cfRule type="expression" dxfId="124" priority="62">
       <formula>AND(COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="183" priority="63">
+    <cfRule type="expression" dxfId="123" priority="63">
       <formula>COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="64">
+    <cfRule type="expression" dxfId="122" priority="64">
       <formula>AND(COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="181" priority="65">
+    <cfRule type="expression" dxfId="121" priority="65">
       <formula>COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="66">
+    <cfRule type="expression" dxfId="120" priority="66">
       <formula>AND(COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="179" priority="67">
+    <cfRule type="expression" dxfId="119" priority="67">
       <formula>COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="68">
+    <cfRule type="expression" dxfId="118" priority="68">
       <formula>AND(COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="177" priority="69">
+    <cfRule type="expression" dxfId="117" priority="69">
       <formula>COUNTIF(E48:H48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="70">
+    <cfRule type="expression" dxfId="116" priority="70">
       <formula>AND(COUNTIF(E48:H48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="175" priority="7">
+    <cfRule type="expression" dxfId="115" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="8">
+    <cfRule type="expression" dxfId="114" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="173" priority="71">
+    <cfRule type="expression" dxfId="113" priority="71">
       <formula>COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="72">
+    <cfRule type="expression" dxfId="112" priority="72">
       <formula>AND(COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="171" priority="73">
+    <cfRule type="expression" dxfId="111" priority="73">
       <formula>COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="74">
+    <cfRule type="expression" dxfId="110" priority="74">
       <formula>AND(COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="169" priority="75">
+    <cfRule type="expression" dxfId="109" priority="75">
       <formula>COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="76">
+    <cfRule type="expression" dxfId="108" priority="76">
       <formula>AND(COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="167" priority="77">
+    <cfRule type="expression" dxfId="107" priority="77">
       <formula>COUNTIF(E54:H54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="78">
+    <cfRule type="expression" dxfId="106" priority="78">
       <formula>AND(COUNTIF(E54:H54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="165" priority="79">
+    <cfRule type="expression" dxfId="105" priority="79">
       <formula>COUNTIF(E55:H55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="80">
+    <cfRule type="expression" dxfId="104" priority="80">
       <formula>AND(COUNTIF(E55:H55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="163" priority="81">
+    <cfRule type="expression" dxfId="103" priority="81">
       <formula>COUNTIF(E58:H58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="82">
+    <cfRule type="expression" dxfId="102" priority="82">
       <formula>AND(COUNTIF(E58:H58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="161" priority="83">
+    <cfRule type="expression" dxfId="101" priority="83">
       <formula>COUNTIF(E59:H59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="84">
+    <cfRule type="expression" dxfId="100" priority="84">
       <formula>AND(COUNTIF(E59:H59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="159" priority="9">
+    <cfRule type="expression" dxfId="99" priority="9">
       <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="10">
+    <cfRule type="expression" dxfId="98" priority="10">
       <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="157" priority="85">
+    <cfRule type="expression" dxfId="97" priority="85">
       <formula>COUNTIF(E60:H60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="86">
+    <cfRule type="expression" dxfId="96" priority="86">
       <formula>AND(COUNTIF(E60:H60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="155" priority="87">
+    <cfRule type="expression" dxfId="95" priority="87">
       <formula>COUNTIF(E61:H61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="88">
+    <cfRule type="expression" dxfId="94" priority="88">
       <formula>AND(COUNTIF(E61:H61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="153" priority="89">
+    <cfRule type="expression" dxfId="93" priority="89">
       <formula>COUNTIF(E62:H62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="90">
+    <cfRule type="expression" dxfId="92" priority="90">
       <formula>AND(COUNTIF(E62:H62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="151" priority="11">
+    <cfRule type="expression" dxfId="91" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="12">
+    <cfRule type="expression" dxfId="90" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6488,7 +5588,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="5" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" customWidth="1"/>
     <col min="7" max="15" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/tests/databooks/progbook_diabetes.xlsx
+++ b/tests/databooks/progbook_diabetes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="49">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>Best</t>
   </si>
   <si>
     <t>Diagnosis sensitivity</t>
@@ -3542,9 +3539,7 @@
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="6">
         <v>0.99</v>
@@ -3564,7 +3559,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
@@ -3626,9 +3621,7 @@
       <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -3646,7 +3639,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>41</v>
@@ -3708,9 +3701,7 @@
       <c r="C8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3728,7 +3719,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>41</v>
@@ -3790,9 +3781,7 @@
       <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -3812,7 +3801,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -3874,9 +3863,7 @@
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3893,19 +3880,59 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>COUNTIF(F11:O11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="80">
+      <formula>AND(COUNTIF(F11:O11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1" priority="99">
+      <formula>COUNTIF(F14:O14,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="100">
+      <formula>AND(COUNTIF(F14:O14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="20">
+      <formula>AND(COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="1" priority="39">
+      <formula>COUNTIF(F5:O5,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="40">
+      <formula>AND(COUNTIF(F5:O5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>AND(COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="2" priority="81">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
+    <cfRule type="expression" dxfId="3" priority="82">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3918,34 +3945,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="2" priority="63">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="3" priority="64">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="75">
+    <cfRule type="expression" dxfId="2" priority="83">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
+    <cfRule type="expression" dxfId="3" priority="84">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3958,34 +3985,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="77">
+    <cfRule type="expression" dxfId="2" priority="85">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
+    <cfRule type="expression" dxfId="3" priority="86">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3998,34 +4025,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="79">
+    <cfRule type="expression" dxfId="2" priority="87">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4038,34 +4065,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="47">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="48">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="69">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="81">
+    <cfRule type="expression" dxfId="2" priority="89">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
+    <cfRule type="expression" dxfId="3" priority="90">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4078,34 +4105,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="2" priority="71">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="3" priority="72">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="2" priority="83">
+    <cfRule type="expression" dxfId="2" priority="91">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4118,34 +4145,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="2" priority="73">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="2" priority="85">
+    <cfRule type="expression" dxfId="2" priority="93">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4158,34 +4185,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="2" priority="87">
+    <cfRule type="expression" dxfId="2" priority="95">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
+    <cfRule type="expression" dxfId="3" priority="96">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4198,34 +4225,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="77">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="2" priority="97">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
+    <cfRule type="expression" dxfId="3" priority="98">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4238,18 +4265,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_diabetes.xlsx
+++ b/tests/databooks/progbook_diabetes.xlsx
@@ -3393,55 +3393,55 @@
   </conditionalFormatting>
   <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
       <formula1>"people/year,people"</formula1>
